--- a/4. Efecto Hall/Code/Datos_Temp_puro.xlsx
+++ b/4. Efecto Hall/Code/Datos_Temp_puro.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Intermedio\InterHall\Intermedio\4. Efecto Hall\CompleteData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Intermedio\InterHall\Intermedio\4. Efecto Hall\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901F4709-7787-42F1-8473-6521CA0C528B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B83808D-6C4F-437C-907D-8EA5CE0F511F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
-  <si>
-    <t>I=0</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
   <si>
     <t>T [°C]</t>
   </si>
@@ -37,9 +34,6 @@
   </si>
   <si>
     <t>V_L</t>
-  </si>
-  <si>
-    <t>I=1.4</t>
   </si>
 </sst>
 </file>
@@ -357,10 +351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -369,934 +363,1019 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>3</v>
+      <c r="A2">
+        <v>41</v>
+      </c>
+      <c r="B2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C2">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="E2">
+        <v>41</v>
+      </c>
+      <c r="F2">
+        <v>1.3</v>
+      </c>
+      <c r="G2">
+        <v>1.861</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B3">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="C3">
-        <v>2.4900000000000002</v>
+        <v>2.15</v>
       </c>
       <c r="E3">
-        <v>41</v>
+        <v>43</v>
+      </c>
+      <c r="F3">
+        <v>1.3</v>
       </c>
       <c r="G3">
-        <v>1.861</v>
+        <v>1.7390000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B4">
         <v>1.2</v>
       </c>
       <c r="C4">
-        <v>21.5</v>
+        <v>2.12</v>
       </c>
       <c r="E4">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="F4">
+        <v>1.3</v>
       </c>
       <c r="G4">
-        <v>1.7390000000000001</v>
+        <v>1.6639999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B5">
         <v>1.2</v>
       </c>
       <c r="C5">
-        <v>21.2</v>
+        <v>1.98</v>
       </c>
       <c r="E5">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="F5">
+        <v>1.3</v>
       </c>
       <c r="G5">
-        <v>1.6639999999999999</v>
+        <v>1.5169999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B6">
         <v>1.2</v>
       </c>
       <c r="C6">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="E6">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="F6">
+        <v>1.3</v>
       </c>
       <c r="G6">
-        <v>1.5169999999999999</v>
+        <v>1.4450000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B7">
         <v>1.2</v>
       </c>
       <c r="C7">
-        <v>1.8</v>
+        <v>1.68</v>
       </c>
       <c r="E7">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="F7">
+        <v>1.3</v>
       </c>
       <c r="G7">
-        <v>1.4450000000000001</v>
+        <v>1.323</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B8">
         <v>1.2</v>
       </c>
       <c r="C8">
-        <v>1.68</v>
+        <v>1.52</v>
       </c>
       <c r="E8">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="F8">
+        <v>1.3</v>
       </c>
       <c r="G8">
-        <v>1.323</v>
+        <v>1.123</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B9">
         <v>1.2</v>
       </c>
       <c r="C9">
-        <v>1.52</v>
+        <v>1.42</v>
       </c>
       <c r="E9">
-        <v>53</v>
+        <v>55</v>
+      </c>
+      <c r="F9">
+        <v>1.3</v>
       </c>
       <c r="G9">
-        <v>1.123</v>
+        <v>1.0309999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B10">
         <v>1.2</v>
       </c>
       <c r="C10">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="E10">
-        <v>55</v>
+        <v>57</v>
+      </c>
+      <c r="F10">
+        <v>1.3</v>
       </c>
       <c r="G10">
-        <v>1.0309999999999999</v>
+        <v>0.95399999999999996</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B11">
         <v>1.2</v>
       </c>
       <c r="C11">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
       <c r="E11">
-        <v>57</v>
+        <v>59</v>
+      </c>
+      <c r="F11">
+        <v>1.3</v>
       </c>
       <c r="G11">
-        <v>0.95399999999999996</v>
+        <v>0.88700000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B12">
         <v>1.2</v>
       </c>
       <c r="C12">
-        <v>1.21</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E12">
-        <v>59</v>
+        <v>61</v>
+      </c>
+      <c r="F12">
+        <v>1.3</v>
       </c>
       <c r="G12">
-        <v>0.88700000000000001</v>
+        <v>0.81200000000000006</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B13">
         <v>1.2</v>
       </c>
       <c r="C13">
-        <v>1.1000000000000001</v>
+        <v>1.01</v>
       </c>
       <c r="E13">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="F13">
+        <v>1.3</v>
       </c>
       <c r="G13">
-        <v>0.81200000000000006</v>
+        <v>0.74399999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B14">
         <v>1.2</v>
       </c>
       <c r="C14">
-        <v>1.01</v>
+        <v>0.93</v>
       </c>
       <c r="E14">
-        <v>63</v>
+        <v>65</v>
+      </c>
+      <c r="F14">
+        <v>1.3</v>
       </c>
       <c r="G14">
-        <v>0.74399999999999999</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B15">
         <v>1.2</v>
       </c>
       <c r="C15">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="E15">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="F15">
+        <v>1.3</v>
       </c>
       <c r="G15">
-        <v>0.7</v>
+        <v>0.64800000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B16">
         <v>1.2</v>
       </c>
       <c r="C16">
-        <v>0.87</v>
+        <v>0.8</v>
       </c>
       <c r="E16">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="F16">
+        <v>1.3</v>
       </c>
       <c r="G16">
-        <v>0.64800000000000002</v>
+        <v>0.59699999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B17">
         <v>1.2</v>
       </c>
       <c r="C17">
-        <v>0.8</v>
+        <v>0.74</v>
       </c>
       <c r="E17">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="F17">
+        <v>1.3</v>
       </c>
       <c r="G17">
-        <v>0.59699999999999998</v>
+        <v>0.54400000000000004</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B18">
         <v>1.2</v>
       </c>
       <c r="C18">
-        <v>0.74</v>
+        <v>0.68</v>
       </c>
       <c r="E18">
-        <v>71</v>
+        <v>73</v>
+      </c>
+      <c r="F18">
+        <v>1.3</v>
       </c>
       <c r="G18">
-        <v>0.54400000000000004</v>
+        <v>0.51200000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B19">
         <v>1.2</v>
       </c>
       <c r="C19">
-        <v>0.68</v>
+        <v>0.61</v>
       </c>
       <c r="E19">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="F19">
+        <v>1.3</v>
       </c>
       <c r="G19">
-        <v>0.51200000000000001</v>
+        <v>0.47699999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B20">
         <v>1.2</v>
       </c>
       <c r="C20">
-        <v>0.61</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="E20">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="F20">
+        <v>1.3</v>
       </c>
       <c r="G20">
-        <v>0.47699999999999998</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B21">
         <v>1.2</v>
       </c>
       <c r="C21">
-        <v>0.56999999999999995</v>
+        <v>0.52</v>
       </c>
       <c r="E21">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="F21">
+        <v>1.3</v>
       </c>
       <c r="G21">
-        <v>0.44</v>
+        <v>0.41099999999999998</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B22">
         <v>1.2</v>
       </c>
       <c r="C22">
-        <v>0.52</v>
+        <v>0.47</v>
       </c>
       <c r="E22">
-        <v>79</v>
+        <v>81</v>
+      </c>
+      <c r="F22">
+        <v>1.3</v>
       </c>
       <c r="G22">
-        <v>0.41099999999999998</v>
+        <v>0.38300000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B23">
         <v>1.2</v>
       </c>
       <c r="C23">
-        <v>0.47</v>
+        <v>0.45</v>
       </c>
       <c r="E23">
-        <v>81</v>
+        <v>83</v>
+      </c>
+      <c r="F23">
+        <v>1.3</v>
       </c>
       <c r="G23">
-        <v>0.38300000000000001</v>
+        <v>0.35499999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B24">
         <v>1.2</v>
       </c>
       <c r="C24">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="E24">
-        <v>83</v>
+        <v>85</v>
+      </c>
+      <c r="F24">
+        <v>1.3</v>
       </c>
       <c r="G24">
-        <v>0.35499999999999998</v>
+        <v>0.33200000000000002</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B25">
         <v>1.2</v>
       </c>
       <c r="C25">
-        <v>0.43</v>
+        <v>0.41</v>
       </c>
       <c r="E25">
-        <v>85</v>
+        <v>87</v>
+      </c>
+      <c r="F25">
+        <v>1.3</v>
       </c>
       <c r="G25">
-        <v>0.33200000000000002</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B26">
         <v>1.2</v>
       </c>
       <c r="C26">
-        <v>0.41</v>
+        <v>0.37</v>
       </c>
       <c r="E26">
-        <v>87</v>
+        <v>89</v>
+      </c>
+      <c r="F26">
+        <v>1.3</v>
       </c>
       <c r="G26">
-        <v>0.31</v>
+        <v>0.28699999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B27">
         <v>1.2</v>
       </c>
       <c r="C27">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="E27">
-        <v>89</v>
+        <v>91</v>
+      </c>
+      <c r="F27">
+        <v>1.3</v>
       </c>
       <c r="G27">
-        <v>0.28699999999999998</v>
+        <v>0.26900000000000002</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B28">
         <v>1.2</v>
       </c>
       <c r="C28">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
       <c r="E28">
-        <v>91</v>
+        <v>93</v>
+      </c>
+      <c r="F28">
+        <v>1.3</v>
       </c>
       <c r="G28">
-        <v>0.26900000000000002</v>
+        <v>0.247</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B29">
         <v>1.2</v>
       </c>
       <c r="C29">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="E29">
-        <v>93</v>
+        <v>95</v>
+      </c>
+      <c r="F29">
+        <v>1.3</v>
       </c>
       <c r="G29">
-        <v>0.247</v>
+        <v>0.23499999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B30">
         <v>1.2</v>
       </c>
       <c r="C30">
-        <v>0.3</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="E30">
-        <v>95</v>
+        <v>97</v>
+      </c>
+      <c r="F30">
+        <v>1.3</v>
       </c>
       <c r="G30">
-        <v>0.23499999999999999</v>
+        <v>0.216</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B31">
         <v>1.2</v>
       </c>
       <c r="C31">
-        <v>0.28000000000000003</v>
+        <v>0.26</v>
       </c>
       <c r="E31">
-        <v>97</v>
+        <v>99</v>
+      </c>
+      <c r="F31">
+        <v>1.3</v>
       </c>
       <c r="G31">
-        <v>0.216</v>
+        <v>0.20499999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B32">
         <v>1.2</v>
       </c>
       <c r="C32">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="E32">
-        <v>99</v>
+        <v>101</v>
+      </c>
+      <c r="F32">
+        <v>1.3</v>
       </c>
       <c r="G32">
-        <v>0.20499999999999999</v>
+        <v>0.191</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B33">
         <v>1.2</v>
       </c>
       <c r="C33">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="E33">
-        <v>101</v>
+        <v>103</v>
+      </c>
+      <c r="F33">
+        <v>1.3</v>
       </c>
       <c r="G33">
-        <v>0.191</v>
+        <v>0.17899999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B34">
         <v>1.2</v>
       </c>
       <c r="C34">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="E34">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F34">
         <v>1.3</v>
       </c>
       <c r="G34">
-        <v>0.17899999999999999</v>
+        <v>0.16700000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B35">
         <v>1.2</v>
       </c>
       <c r="C35">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="E35">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F35">
         <v>1.3</v>
       </c>
       <c r="G35">
-        <v>0.16700000000000001</v>
+        <v>0.157</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B36">
         <v>1.2</v>
       </c>
       <c r="C36">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="E36">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F36">
         <v>1.3</v>
       </c>
       <c r="G36">
-        <v>0.157</v>
+        <v>0.14799999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B37">
         <v>1.2</v>
       </c>
       <c r="C37">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="E37">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F37">
         <v>1.3</v>
       </c>
       <c r="G37">
-        <v>0.14799999999999999</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B38">
         <v>1.2</v>
       </c>
       <c r="C38">
-        <v>0.18</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="E38">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F38">
         <v>1.3</v>
       </c>
       <c r="G38">
-        <v>0.14000000000000001</v>
+        <v>0.13100000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B39">
         <v>1.2</v>
       </c>
       <c r="C39">
-        <v>0.16800000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="E39">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F39">
         <v>1.3</v>
       </c>
       <c r="G39">
-        <v>0.13100000000000001</v>
+        <v>0.123</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B40">
         <v>1.2</v>
       </c>
       <c r="C40">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="E40">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F40">
         <v>1.3</v>
       </c>
       <c r="G40">
-        <v>0.123</v>
+        <v>0.113</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B41">
         <v>1.2</v>
       </c>
       <c r="C41">
-        <v>0.15</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E41">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F41">
         <v>1.3</v>
       </c>
       <c r="G41">
-        <v>0.113</v>
+        <v>0.108</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B42">
         <v>1.2</v>
       </c>
       <c r="C42">
-        <v>0.14000000000000001</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="E42">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F42">
         <v>1.3</v>
       </c>
       <c r="G42">
-        <v>0.108</v>
+        <v>0.10199999999999999</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B43">
         <v>1.2</v>
       </c>
       <c r="C43">
-        <v>0.13200000000000001</v>
+        <v>0.123</v>
       </c>
       <c r="E43">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F43">
         <v>1.3</v>
       </c>
       <c r="G43">
-        <v>0.10199999999999999</v>
+        <v>9.7000000000000003E-2</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B44">
         <v>1.2</v>
       </c>
       <c r="C44">
-        <v>0.123</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="E44">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F44">
         <v>1.3</v>
       </c>
       <c r="G44">
-        <v>9.7000000000000003E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B45">
         <v>1.2</v>
       </c>
       <c r="C45">
-        <v>0.11700000000000001</v>
+        <v>0.109</v>
       </c>
       <c r="E45">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F45">
         <v>1.3</v>
       </c>
       <c r="G45">
-        <v>9.1999999999999998E-2</v>
+        <v>8.7999999999999995E-2</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B46">
         <v>1.2</v>
       </c>
       <c r="C46">
-        <v>0.109</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="E46">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F46">
         <v>1.3</v>
       </c>
       <c r="G46">
-        <v>8.7999999999999995E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B47">
         <v>1.2</v>
       </c>
       <c r="C47">
-        <v>0.10199999999999999</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="E47">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F47">
         <v>1.3</v>
       </c>
       <c r="G47">
-        <v>8.2000000000000003E-2</v>
+        <v>7.9000000000000001E-2</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B48">
         <v>1.2</v>
       </c>
       <c r="C48">
-        <v>9.8000000000000004E-2</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="E48">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F48">
         <v>1.3</v>
       </c>
       <c r="G48">
-        <v>7.9000000000000001E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B49">
         <v>1.2</v>
       </c>
       <c r="C49">
-        <v>9.0999999999999998E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="E49">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F49">
         <v>1.3</v>
       </c>
       <c r="G49">
-        <v>7.5999999999999998E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B50">
         <v>1.2</v>
       </c>
       <c r="C50">
-        <v>8.6999999999999994E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="E50">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F50">
         <v>1.3</v>
       </c>
       <c r="G50">
-        <v>7.3999999999999996E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B51">
         <v>1.2</v>
       </c>
       <c r="C51">
-        <v>8.1000000000000003E-2</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="E51">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F51">
         <v>1.3</v>
       </c>
       <c r="G51">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>139</v>
-      </c>
-      <c r="B52">
-        <v>1.2</v>
-      </c>
-      <c r="C52">
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="E52">
-        <v>139</v>
-      </c>
-      <c r="F52">
-        <v>1.3</v>
-      </c>
-      <c r="G52">
         <v>7.0999999999999994E-2</v>
       </c>
     </row>

--- a/4. Efecto Hall/Code/Datos_Temp_puro.xlsx
+++ b/4. Efecto Hall/Code/Datos_Temp_puro.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Intermedio\InterHall\Intermedio\4. Efecto Hall\Code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Intermedio\Hall\Intermedio\4. Efecto Hall\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B83808D-6C4F-437C-907D-8EA5CE0F511F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87320E6A-F32B-4AB0-9B57-35E3E98206ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,15 +25,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>T [°C]</t>
   </si>
   <si>
-    <t xml:space="preserve">V_H </t>
+    <t>VH err</t>
   </si>
   <si>
-    <t>V_L</t>
+    <t>VL err</t>
+  </si>
+  <si>
+    <t>V_H [mV]</t>
+  </si>
+  <si>
+    <t>V_L[V]</t>
+  </si>
+  <si>
+    <t>V_L [V]</t>
   </si>
 </sst>
 </file>
@@ -351,55 +360,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>41</v>
       </c>
       <c r="B2">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="C2">
         <v>2.4900000000000002</v>
       </c>
+      <c r="D2">
+        <v>0.1</v>
+      </c>
       <c r="E2">
+        <v>0.01</v>
+      </c>
+      <c r="G2">
         <v>41</v>
       </c>
-      <c r="F2">
-        <v>1.3</v>
-      </c>
-      <c r="G2">
+      <c r="H2">
+        <v>1.3</v>
+      </c>
+      <c r="I2">
         <v>1.861</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J2">
+        <v>0.1</v>
+      </c>
+      <c r="K2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>43</v>
       </c>
@@ -409,17 +442,29 @@
       <c r="C3">
         <v>2.15</v>
       </c>
+      <c r="D3">
+        <v>0.1</v>
+      </c>
       <c r="E3">
+        <v>0.01</v>
+      </c>
+      <c r="G3">
         <v>43</v>
       </c>
-      <c r="F3">
-        <v>1.3</v>
-      </c>
-      <c r="G3">
+      <c r="H3">
+        <v>1.3</v>
+      </c>
+      <c r="I3">
         <v>1.7390000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <v>0.1</v>
+      </c>
+      <c r="K3">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>45</v>
       </c>
@@ -429,17 +474,29 @@
       <c r="C4">
         <v>2.12</v>
       </c>
+      <c r="D4">
+        <v>0.1</v>
+      </c>
       <c r="E4">
+        <v>0.01</v>
+      </c>
+      <c r="G4">
         <v>45</v>
       </c>
-      <c r="F4">
-        <v>1.3</v>
-      </c>
-      <c r="G4">
+      <c r="H4">
+        <v>1.3</v>
+      </c>
+      <c r="I4">
         <v>1.6639999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <v>0.1</v>
+      </c>
+      <c r="K4">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>47</v>
       </c>
@@ -449,17 +506,29 @@
       <c r="C5">
         <v>1.98</v>
       </c>
+      <c r="D5">
+        <v>0.1</v>
+      </c>
       <c r="E5">
+        <v>0.01</v>
+      </c>
+      <c r="G5">
         <v>47</v>
       </c>
-      <c r="F5">
-        <v>1.3</v>
-      </c>
-      <c r="G5">
+      <c r="H5">
+        <v>1.3</v>
+      </c>
+      <c r="I5">
         <v>1.5169999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <v>0.1</v>
+      </c>
+      <c r="K5">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>49</v>
       </c>
@@ -469,17 +538,29 @@
       <c r="C6">
         <v>1.8</v>
       </c>
+      <c r="D6">
+        <v>0.1</v>
+      </c>
       <c r="E6">
+        <v>0.01</v>
+      </c>
+      <c r="G6">
         <v>49</v>
       </c>
-      <c r="F6">
-        <v>1.3</v>
-      </c>
-      <c r="G6">
+      <c r="H6">
+        <v>1.3</v>
+      </c>
+      <c r="I6">
         <v>1.4450000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <v>0.1</v>
+      </c>
+      <c r="K6">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>51</v>
       </c>
@@ -489,17 +570,29 @@
       <c r="C7">
         <v>1.68</v>
       </c>
+      <c r="D7">
+        <v>0.1</v>
+      </c>
       <c r="E7">
+        <v>0.01</v>
+      </c>
+      <c r="G7">
         <v>51</v>
       </c>
-      <c r="F7">
-        <v>1.3</v>
-      </c>
-      <c r="G7">
+      <c r="H7">
+        <v>1.3</v>
+      </c>
+      <c r="I7">
         <v>1.323</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <v>0.1</v>
+      </c>
+      <c r="K7">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>53</v>
       </c>
@@ -509,17 +602,29 @@
       <c r="C8">
         <v>1.52</v>
       </c>
+      <c r="D8">
+        <v>0.1</v>
+      </c>
       <c r="E8">
+        <v>0.01</v>
+      </c>
+      <c r="G8">
         <v>53</v>
       </c>
-      <c r="F8">
-        <v>1.3</v>
-      </c>
-      <c r="G8">
+      <c r="H8">
+        <v>1.3</v>
+      </c>
+      <c r="I8">
         <v>1.123</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <v>0.1</v>
+      </c>
+      <c r="K8">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>55</v>
       </c>
@@ -529,17 +634,29 @@
       <c r="C9">
         <v>1.42</v>
       </c>
+      <c r="D9">
+        <v>0.1</v>
+      </c>
       <c r="E9">
+        <v>0.01</v>
+      </c>
+      <c r="G9">
         <v>55</v>
       </c>
-      <c r="F9">
-        <v>1.3</v>
-      </c>
-      <c r="G9">
+      <c r="H9">
+        <v>1.3</v>
+      </c>
+      <c r="I9">
         <v>1.0309999999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <v>0.1</v>
+      </c>
+      <c r="K9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>57</v>
       </c>
@@ -549,17 +666,29 @@
       <c r="C10">
         <v>1.29</v>
       </c>
+      <c r="D10">
+        <v>0.1</v>
+      </c>
       <c r="E10">
+        <v>0.01</v>
+      </c>
+      <c r="G10">
         <v>57</v>
       </c>
-      <c r="F10">
-        <v>1.3</v>
-      </c>
-      <c r="G10">
+      <c r="H10">
+        <v>1.3</v>
+      </c>
+      <c r="I10">
         <v>0.95399999999999996</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <v>0.1</v>
+      </c>
+      <c r="K10">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>59</v>
       </c>
@@ -569,17 +698,29 @@
       <c r="C11">
         <v>1.21</v>
       </c>
+      <c r="D11">
+        <v>0.1</v>
+      </c>
       <c r="E11">
+        <v>0.01</v>
+      </c>
+      <c r="G11">
         <v>59</v>
       </c>
-      <c r="F11">
-        <v>1.3</v>
-      </c>
-      <c r="G11">
+      <c r="H11">
+        <v>1.3</v>
+      </c>
+      <c r="I11">
         <v>0.88700000000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <v>0.1</v>
+      </c>
+      <c r="K11">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>61</v>
       </c>
@@ -589,17 +730,29 @@
       <c r="C12">
         <v>1.1000000000000001</v>
       </c>
+      <c r="D12">
+        <v>0.1</v>
+      </c>
       <c r="E12">
+        <v>0.01</v>
+      </c>
+      <c r="G12">
         <v>61</v>
       </c>
-      <c r="F12">
-        <v>1.3</v>
-      </c>
-      <c r="G12">
+      <c r="H12">
+        <v>1.3</v>
+      </c>
+      <c r="I12">
         <v>0.81200000000000006</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <v>0.1</v>
+      </c>
+      <c r="K12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>63</v>
       </c>
@@ -609,17 +762,29 @@
       <c r="C13">
         <v>1.01</v>
       </c>
+      <c r="D13">
+        <v>0.1</v>
+      </c>
       <c r="E13">
+        <v>0.01</v>
+      </c>
+      <c r="G13">
         <v>63</v>
       </c>
-      <c r="F13">
-        <v>1.3</v>
-      </c>
-      <c r="G13">
+      <c r="H13">
+        <v>1.3</v>
+      </c>
+      <c r="I13">
         <v>0.74399999999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <v>0.1</v>
+      </c>
+      <c r="K13">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>65</v>
       </c>
@@ -629,17 +794,29 @@
       <c r="C14">
         <v>0.93</v>
       </c>
+      <c r="D14">
+        <v>0.1</v>
+      </c>
       <c r="E14">
+        <v>0.01</v>
+      </c>
+      <c r="G14">
         <v>65</v>
       </c>
-      <c r="F14">
-        <v>1.3</v>
-      </c>
-      <c r="G14">
+      <c r="H14">
+        <v>1.3</v>
+      </c>
+      <c r="I14">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J14">
+        <v>0.1</v>
+      </c>
+      <c r="K14">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>67</v>
       </c>
@@ -649,17 +826,29 @@
       <c r="C15">
         <v>0.87</v>
       </c>
+      <c r="D15">
+        <v>0.1</v>
+      </c>
       <c r="E15">
+        <v>0.01</v>
+      </c>
+      <c r="G15">
         <v>67</v>
       </c>
-      <c r="F15">
-        <v>1.3</v>
-      </c>
-      <c r="G15">
+      <c r="H15">
+        <v>1.3</v>
+      </c>
+      <c r="I15">
         <v>0.64800000000000002</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <v>0.1</v>
+      </c>
+      <c r="K15">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>69</v>
       </c>
@@ -669,17 +858,29 @@
       <c r="C16">
         <v>0.8</v>
       </c>
+      <c r="D16">
+        <v>0.1</v>
+      </c>
       <c r="E16">
+        <v>0.01</v>
+      </c>
+      <c r="G16">
         <v>69</v>
       </c>
-      <c r="F16">
-        <v>1.3</v>
-      </c>
-      <c r="G16">
+      <c r="H16">
+        <v>1.3</v>
+      </c>
+      <c r="I16">
         <v>0.59699999999999998</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <v>0.1</v>
+      </c>
+      <c r="K16">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>71</v>
       </c>
@@ -689,17 +890,29 @@
       <c r="C17">
         <v>0.74</v>
       </c>
+      <c r="D17">
+        <v>0.1</v>
+      </c>
       <c r="E17">
+        <v>0.01</v>
+      </c>
+      <c r="G17">
         <v>71</v>
       </c>
-      <c r="F17">
-        <v>1.3</v>
-      </c>
-      <c r="G17">
+      <c r="H17">
+        <v>1.3</v>
+      </c>
+      <c r="I17">
         <v>0.54400000000000004</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <v>0.1</v>
+      </c>
+      <c r="K17">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>73</v>
       </c>
@@ -709,17 +922,29 @@
       <c r="C18">
         <v>0.68</v>
       </c>
+      <c r="D18">
+        <v>0.1</v>
+      </c>
       <c r="E18">
+        <v>0.01</v>
+      </c>
+      <c r="G18">
         <v>73</v>
       </c>
-      <c r="F18">
-        <v>1.3</v>
-      </c>
-      <c r="G18">
+      <c r="H18">
+        <v>1.3</v>
+      </c>
+      <c r="I18">
         <v>0.51200000000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <v>0.1</v>
+      </c>
+      <c r="K18">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>75</v>
       </c>
@@ -729,17 +954,29 @@
       <c r="C19">
         <v>0.61</v>
       </c>
+      <c r="D19">
+        <v>0.1</v>
+      </c>
       <c r="E19">
+        <v>0.01</v>
+      </c>
+      <c r="G19">
         <v>75</v>
       </c>
-      <c r="F19">
-        <v>1.3</v>
-      </c>
-      <c r="G19">
+      <c r="H19">
+        <v>1.3</v>
+      </c>
+      <c r="I19">
         <v>0.47699999999999998</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <v>0.1</v>
+      </c>
+      <c r="K19">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>77</v>
       </c>
@@ -749,17 +986,29 @@
       <c r="C20">
         <v>0.56999999999999995</v>
       </c>
+      <c r="D20">
+        <v>0.1</v>
+      </c>
       <c r="E20">
+        <v>0.01</v>
+      </c>
+      <c r="G20">
         <v>77</v>
       </c>
-      <c r="F20">
-        <v>1.3</v>
-      </c>
-      <c r="G20">
+      <c r="H20">
+        <v>1.3</v>
+      </c>
+      <c r="I20">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <v>0.1</v>
+      </c>
+      <c r="K20">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>79</v>
       </c>
@@ -769,17 +1018,29 @@
       <c r="C21">
         <v>0.52</v>
       </c>
+      <c r="D21">
+        <v>0.1</v>
+      </c>
       <c r="E21">
+        <v>0.01</v>
+      </c>
+      <c r="G21">
         <v>79</v>
       </c>
-      <c r="F21">
-        <v>1.3</v>
-      </c>
-      <c r="G21">
+      <c r="H21">
+        <v>1.3</v>
+      </c>
+      <c r="I21">
         <v>0.41099999999999998</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J21">
+        <v>0.1</v>
+      </c>
+      <c r="K21">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>81</v>
       </c>
@@ -789,17 +1050,29 @@
       <c r="C22">
         <v>0.47</v>
       </c>
+      <c r="D22">
+        <v>0.1</v>
+      </c>
       <c r="E22">
+        <v>0.01</v>
+      </c>
+      <c r="G22">
         <v>81</v>
       </c>
-      <c r="F22">
-        <v>1.3</v>
-      </c>
-      <c r="G22">
+      <c r="H22">
+        <v>1.3</v>
+      </c>
+      <c r="I22">
         <v>0.38300000000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <v>0.1</v>
+      </c>
+      <c r="K22">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>83</v>
       </c>
@@ -809,17 +1082,29 @@
       <c r="C23">
         <v>0.45</v>
       </c>
+      <c r="D23">
+        <v>0.1</v>
+      </c>
       <c r="E23">
+        <v>0.01</v>
+      </c>
+      <c r="G23">
         <v>83</v>
       </c>
-      <c r="F23">
-        <v>1.3</v>
-      </c>
-      <c r="G23">
+      <c r="H23">
+        <v>1.3</v>
+      </c>
+      <c r="I23">
         <v>0.35499999999999998</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J23">
+        <v>0.1</v>
+      </c>
+      <c r="K23">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>85</v>
       </c>
@@ -829,17 +1114,29 @@
       <c r="C24">
         <v>0.43</v>
       </c>
+      <c r="D24">
+        <v>0.1</v>
+      </c>
       <c r="E24">
+        <v>0.01</v>
+      </c>
+      <c r="G24">
         <v>85</v>
       </c>
-      <c r="F24">
-        <v>1.3</v>
-      </c>
-      <c r="G24">
+      <c r="H24">
+        <v>1.3</v>
+      </c>
+      <c r="I24">
         <v>0.33200000000000002</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J24">
+        <v>0.1</v>
+      </c>
+      <c r="K24">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>87</v>
       </c>
@@ -849,17 +1146,29 @@
       <c r="C25">
         <v>0.41</v>
       </c>
+      <c r="D25">
+        <v>0.1</v>
+      </c>
       <c r="E25">
+        <v>0.01</v>
+      </c>
+      <c r="G25">
         <v>87</v>
       </c>
-      <c r="F25">
-        <v>1.3</v>
-      </c>
-      <c r="G25">
+      <c r="H25">
+        <v>1.3</v>
+      </c>
+      <c r="I25">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J25">
+        <v>0.1</v>
+      </c>
+      <c r="K25">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>89</v>
       </c>
@@ -869,17 +1178,29 @@
       <c r="C26">
         <v>0.37</v>
       </c>
+      <c r="D26">
+        <v>0.1</v>
+      </c>
       <c r="E26">
+        <v>0.01</v>
+      </c>
+      <c r="G26">
         <v>89</v>
       </c>
-      <c r="F26">
-        <v>1.3</v>
-      </c>
-      <c r="G26">
+      <c r="H26">
+        <v>1.3</v>
+      </c>
+      <c r="I26">
         <v>0.28699999999999998</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J26">
+        <v>0.1</v>
+      </c>
+      <c r="K26">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>91</v>
       </c>
@@ -889,17 +1210,29 @@
       <c r="C27">
         <v>0.35</v>
       </c>
+      <c r="D27">
+        <v>0.1</v>
+      </c>
       <c r="E27">
+        <v>0.01</v>
+      </c>
+      <c r="G27">
         <v>91</v>
       </c>
-      <c r="F27">
-        <v>1.3</v>
-      </c>
-      <c r="G27">
+      <c r="H27">
+        <v>1.3</v>
+      </c>
+      <c r="I27">
         <v>0.26900000000000002</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J27">
+        <v>0.1</v>
+      </c>
+      <c r="K27">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>93</v>
       </c>
@@ -909,17 +1242,29 @@
       <c r="C28">
         <v>0.32</v>
       </c>
+      <c r="D28">
+        <v>0.1</v>
+      </c>
       <c r="E28">
+        <v>0.01</v>
+      </c>
+      <c r="G28">
         <v>93</v>
       </c>
-      <c r="F28">
-        <v>1.3</v>
-      </c>
-      <c r="G28">
+      <c r="H28">
+        <v>1.3</v>
+      </c>
+      <c r="I28">
         <v>0.247</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J28">
+        <v>0.1</v>
+      </c>
+      <c r="K28">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>95</v>
       </c>
@@ -929,17 +1274,29 @@
       <c r="C29">
         <v>0.3</v>
       </c>
+      <c r="D29">
+        <v>0.1</v>
+      </c>
       <c r="E29">
+        <v>0.01</v>
+      </c>
+      <c r="G29">
         <v>95</v>
       </c>
-      <c r="F29">
-        <v>1.3</v>
-      </c>
-      <c r="G29">
+      <c r="H29">
+        <v>1.3</v>
+      </c>
+      <c r="I29">
         <v>0.23499999999999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J29">
+        <v>0.1</v>
+      </c>
+      <c r="K29">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>97</v>
       </c>
@@ -949,17 +1306,29 @@
       <c r="C30">
         <v>0.28000000000000003</v>
       </c>
+      <c r="D30">
+        <v>0.1</v>
+      </c>
       <c r="E30">
+        <v>0.01</v>
+      </c>
+      <c r="G30">
         <v>97</v>
       </c>
-      <c r="F30">
-        <v>1.3</v>
-      </c>
-      <c r="G30">
+      <c r="H30">
+        <v>1.3</v>
+      </c>
+      <c r="I30">
         <v>0.216</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J30">
+        <v>0.1</v>
+      </c>
+      <c r="K30">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>99</v>
       </c>
@@ -969,17 +1338,29 @@
       <c r="C31">
         <v>0.26</v>
       </c>
+      <c r="D31">
+        <v>0.1</v>
+      </c>
       <c r="E31">
+        <v>0.01</v>
+      </c>
+      <c r="G31">
         <v>99</v>
       </c>
-      <c r="F31">
-        <v>1.3</v>
-      </c>
-      <c r="G31">
+      <c r="H31">
+        <v>1.3</v>
+      </c>
+      <c r="I31">
         <v>0.20499999999999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J31">
+        <v>0.1</v>
+      </c>
+      <c r="K31">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>101</v>
       </c>
@@ -989,17 +1370,29 @@
       <c r="C32">
         <v>0.25</v>
       </c>
+      <c r="D32">
+        <v>0.1</v>
+      </c>
       <c r="E32">
+        <v>0.01</v>
+      </c>
+      <c r="G32">
         <v>101</v>
       </c>
-      <c r="F32">
-        <v>1.3</v>
-      </c>
-      <c r="G32">
+      <c r="H32">
+        <v>1.3</v>
+      </c>
+      <c r="I32">
         <v>0.191</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J32">
+        <v>0.1</v>
+      </c>
+      <c r="K32">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>103</v>
       </c>
@@ -1009,17 +1402,29 @@
       <c r="C33">
         <v>0.23</v>
       </c>
+      <c r="D33">
+        <v>0.1</v>
+      </c>
       <c r="E33">
+        <v>0.01</v>
+      </c>
+      <c r="G33">
         <v>103</v>
       </c>
-      <c r="F33">
-        <v>1.3</v>
-      </c>
-      <c r="G33">
+      <c r="H33">
+        <v>1.3</v>
+      </c>
+      <c r="I33">
         <v>0.17899999999999999</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J33">
+        <v>0.1</v>
+      </c>
+      <c r="K33">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>105</v>
       </c>
@@ -1029,17 +1434,29 @@
       <c r="C34">
         <v>0.22</v>
       </c>
+      <c r="D34">
+        <v>0.1</v>
+      </c>
       <c r="E34">
+        <v>0.01</v>
+      </c>
+      <c r="G34">
         <v>105</v>
       </c>
-      <c r="F34">
-        <v>1.3</v>
-      </c>
-      <c r="G34">
+      <c r="H34">
+        <v>1.3</v>
+      </c>
+      <c r="I34">
         <v>0.16700000000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J34">
+        <v>0.1</v>
+      </c>
+      <c r="K34">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>107</v>
       </c>
@@ -1049,17 +1466,29 @@
       <c r="C35">
         <v>0.2</v>
       </c>
+      <c r="D35">
+        <v>0.1</v>
+      </c>
       <c r="E35">
+        <v>0.01</v>
+      </c>
+      <c r="G35">
         <v>107</v>
       </c>
-      <c r="F35">
-        <v>1.3</v>
-      </c>
-      <c r="G35">
+      <c r="H35">
+        <v>1.3</v>
+      </c>
+      <c r="I35">
         <v>0.157</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J35">
+        <v>0.1</v>
+      </c>
+      <c r="K35">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>109</v>
       </c>
@@ -1069,17 +1498,29 @@
       <c r="C36">
         <v>0.19</v>
       </c>
+      <c r="D36">
+        <v>0.1</v>
+      </c>
       <c r="E36">
+        <v>0.01</v>
+      </c>
+      <c r="G36">
         <v>109</v>
       </c>
-      <c r="F36">
-        <v>1.3</v>
-      </c>
-      <c r="G36">
+      <c r="H36">
+        <v>1.3</v>
+      </c>
+      <c r="I36">
         <v>0.14799999999999999</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J36">
+        <v>0.1</v>
+      </c>
+      <c r="K36">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>111</v>
       </c>
@@ -1089,17 +1530,29 @@
       <c r="C37">
         <v>0.18</v>
       </c>
+      <c r="D37">
+        <v>0.1</v>
+      </c>
       <c r="E37">
+        <v>0.01</v>
+      </c>
+      <c r="G37">
         <v>111</v>
       </c>
-      <c r="F37">
-        <v>1.3</v>
-      </c>
-      <c r="G37">
+      <c r="H37">
+        <v>1.3</v>
+      </c>
+      <c r="I37">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J37">
+        <v>0.1</v>
+      </c>
+      <c r="K37">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>113</v>
       </c>
@@ -1109,17 +1562,29 @@
       <c r="C38">
         <v>0.16800000000000001</v>
       </c>
+      <c r="D38">
+        <v>0.1</v>
+      </c>
       <c r="E38">
+        <v>0.01</v>
+      </c>
+      <c r="G38">
         <v>113</v>
       </c>
-      <c r="F38">
-        <v>1.3</v>
-      </c>
-      <c r="G38">
+      <c r="H38">
+        <v>1.3</v>
+      </c>
+      <c r="I38">
         <v>0.13100000000000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J38">
+        <v>0.1</v>
+      </c>
+      <c r="K38">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>115</v>
       </c>
@@ -1129,17 +1594,29 @@
       <c r="C39">
         <v>0.16</v>
       </c>
+      <c r="D39">
+        <v>0.1</v>
+      </c>
       <c r="E39">
+        <v>0.01</v>
+      </c>
+      <c r="G39">
         <v>115</v>
       </c>
-      <c r="F39">
-        <v>1.3</v>
-      </c>
-      <c r="G39">
+      <c r="H39">
+        <v>1.3</v>
+      </c>
+      <c r="I39">
         <v>0.123</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J39">
+        <v>0.1</v>
+      </c>
+      <c r="K39">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>117</v>
       </c>
@@ -1149,17 +1626,29 @@
       <c r="C40">
         <v>0.15</v>
       </c>
+      <c r="D40">
+        <v>0.1</v>
+      </c>
       <c r="E40">
+        <v>0.01</v>
+      </c>
+      <c r="G40">
         <v>117</v>
       </c>
-      <c r="F40">
-        <v>1.3</v>
-      </c>
-      <c r="G40">
+      <c r="H40">
+        <v>1.3</v>
+      </c>
+      <c r="I40">
         <v>0.113</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J40">
+        <v>0.1</v>
+      </c>
+      <c r="K40">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>119</v>
       </c>
@@ -1169,17 +1658,29 @@
       <c r="C41">
         <v>0.14000000000000001</v>
       </c>
+      <c r="D41">
+        <v>0.1</v>
+      </c>
       <c r="E41">
+        <v>0.01</v>
+      </c>
+      <c r="G41">
         <v>119</v>
       </c>
-      <c r="F41">
-        <v>1.3</v>
-      </c>
-      <c r="G41">
+      <c r="H41">
+        <v>1.3</v>
+      </c>
+      <c r="I41">
         <v>0.108</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J41">
+        <v>0.1</v>
+      </c>
+      <c r="K41">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>121</v>
       </c>
@@ -1189,17 +1690,29 @@
       <c r="C42">
         <v>0.13200000000000001</v>
       </c>
+      <c r="D42">
+        <v>0.1</v>
+      </c>
       <c r="E42">
+        <v>0.01</v>
+      </c>
+      <c r="G42">
         <v>121</v>
       </c>
-      <c r="F42">
-        <v>1.3</v>
-      </c>
-      <c r="G42">
+      <c r="H42">
+        <v>1.3</v>
+      </c>
+      <c r="I42">
         <v>0.10199999999999999</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J42">
+        <v>0.1</v>
+      </c>
+      <c r="K42">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>123</v>
       </c>
@@ -1209,17 +1722,29 @@
       <c r="C43">
         <v>0.123</v>
       </c>
+      <c r="D43">
+        <v>0.1</v>
+      </c>
       <c r="E43">
+        <v>0.01</v>
+      </c>
+      <c r="G43">
         <v>123</v>
       </c>
-      <c r="F43">
-        <v>1.3</v>
-      </c>
-      <c r="G43">
+      <c r="H43">
+        <v>1.3</v>
+      </c>
+      <c r="I43">
         <v>9.7000000000000003E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J43">
+        <v>0.1</v>
+      </c>
+      <c r="K43">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>125</v>
       </c>
@@ -1229,17 +1754,29 @@
       <c r="C44">
         <v>0.11700000000000001</v>
       </c>
+      <c r="D44">
+        <v>0.1</v>
+      </c>
       <c r="E44">
+        <v>0.01</v>
+      </c>
+      <c r="G44">
         <v>125</v>
       </c>
-      <c r="F44">
-        <v>1.3</v>
-      </c>
-      <c r="G44">
+      <c r="H44">
+        <v>1.3</v>
+      </c>
+      <c r="I44">
         <v>9.1999999999999998E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J44">
+        <v>0.1</v>
+      </c>
+      <c r="K44">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>127</v>
       </c>
@@ -1249,17 +1786,29 @@
       <c r="C45">
         <v>0.109</v>
       </c>
+      <c r="D45">
+        <v>0.1</v>
+      </c>
       <c r="E45">
+        <v>0.01</v>
+      </c>
+      <c r="G45">
         <v>127</v>
       </c>
-      <c r="F45">
-        <v>1.3</v>
-      </c>
-      <c r="G45">
+      <c r="H45">
+        <v>1.3</v>
+      </c>
+      <c r="I45">
         <v>8.7999999999999995E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J45">
+        <v>0.1</v>
+      </c>
+      <c r="K45">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>129</v>
       </c>
@@ -1269,17 +1818,29 @@
       <c r="C46">
         <v>0.10199999999999999</v>
       </c>
+      <c r="D46">
+        <v>0.1</v>
+      </c>
       <c r="E46">
+        <v>0.01</v>
+      </c>
+      <c r="G46">
         <v>129</v>
       </c>
-      <c r="F46">
-        <v>1.3</v>
-      </c>
-      <c r="G46">
+      <c r="H46">
+        <v>1.3</v>
+      </c>
+      <c r="I46">
         <v>8.2000000000000003E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J46">
+        <v>0.1</v>
+      </c>
+      <c r="K46">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>131</v>
       </c>
@@ -1289,17 +1850,29 @@
       <c r="C47">
         <v>9.8000000000000004E-2</v>
       </c>
+      <c r="D47">
+        <v>0.1</v>
+      </c>
       <c r="E47">
+        <v>0.01</v>
+      </c>
+      <c r="G47">
         <v>131</v>
       </c>
-      <c r="F47">
-        <v>1.3</v>
-      </c>
-      <c r="G47">
+      <c r="H47">
+        <v>1.3</v>
+      </c>
+      <c r="I47">
         <v>7.9000000000000001E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J47">
+        <v>0.1</v>
+      </c>
+      <c r="K47">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>133</v>
       </c>
@@ -1309,17 +1882,29 @@
       <c r="C48">
         <v>9.0999999999999998E-2</v>
       </c>
+      <c r="D48">
+        <v>0.1</v>
+      </c>
       <c r="E48">
+        <v>0.01</v>
+      </c>
+      <c r="G48">
         <v>133</v>
       </c>
-      <c r="F48">
-        <v>1.3</v>
-      </c>
-      <c r="G48">
+      <c r="H48">
+        <v>1.3</v>
+      </c>
+      <c r="I48">
         <v>7.5999999999999998E-2</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J48">
+        <v>0.1</v>
+      </c>
+      <c r="K48">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>135</v>
       </c>
@@ -1329,17 +1914,29 @@
       <c r="C49">
         <v>8.6999999999999994E-2</v>
       </c>
+      <c r="D49">
+        <v>0.1</v>
+      </c>
       <c r="E49">
+        <v>0.01</v>
+      </c>
+      <c r="G49">
         <v>135</v>
       </c>
-      <c r="F49">
-        <v>1.3</v>
-      </c>
-      <c r="G49">
+      <c r="H49">
+        <v>1.3</v>
+      </c>
+      <c r="I49">
         <v>7.3999999999999996E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J49">
+        <v>0.1</v>
+      </c>
+      <c r="K49">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>137</v>
       </c>
@@ -1349,17 +1946,29 @@
       <c r="C50">
         <v>8.1000000000000003E-2</v>
       </c>
+      <c r="D50">
+        <v>0.1</v>
+      </c>
       <c r="E50">
+        <v>0.01</v>
+      </c>
+      <c r="G50">
         <v>137</v>
       </c>
-      <c r="F50">
-        <v>1.3</v>
-      </c>
-      <c r="G50">
+      <c r="H50">
+        <v>1.3</v>
+      </c>
+      <c r="I50">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J50">
+        <v>0.1</v>
+      </c>
+      <c r="K50">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>139</v>
       </c>
@@ -1369,14 +1978,26 @@
       <c r="C51">
         <v>7.6999999999999999E-2</v>
       </c>
+      <c r="D51">
+        <v>0.1</v>
+      </c>
       <c r="E51">
+        <v>0.01</v>
+      </c>
+      <c r="G51">
         <v>139</v>
       </c>
-      <c r="F51">
-        <v>1.3</v>
-      </c>
-      <c r="G51">
+      <c r="H51">
+        <v>1.3</v>
+      </c>
+      <c r="I51">
         <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="J51">
+        <v>0.1</v>
+      </c>
+      <c r="K51">
+        <v>1E-3</v>
       </c>
     </row>
   </sheetData>
